--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Username</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Courses</t>
@@ -28,22 +29,31 @@
     <t>tim</t>
   </si>
   <si>
-    <t>[['CSC148H1', 'Planned', 0]]</t>
-  </si>
-  <si>
-    <t>['ASSPE1689', 'ASMAJ1689']</t>
-  </si>
-  <si>
-    <t>jim</t>
-  </si>
-  <si>
-    <t>['ASSPE1689']</t>
-  </si>
-  <si>
-    <t>[['CSC148H1', 'Planned', 70]]</t>
-  </si>
-  <si>
-    <t>[['CSC148H1', 'Planned', 70], ['CSC108H1', 'Planned', 0]]</t>
+    <t>[['CSC108H1', 'Planned', 0]]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[['CSC108H1', 'Planned', 80]]</t>
+  </si>
+  <si>
+    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 0]]</t>
+  </si>
+  <si>
+    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 80]]</t>
+  </si>
+  <si>
+    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 80], ['CSC165H1', 'Planned', 0]]</t>
+  </si>
+  <si>
+    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 80], ['CSC165H1', 'Planned', 80]]</t>
+  </si>
+  <si>
+    <t>[['CSC108H1', 'Planned', 0], ['CSC148H1', 'Planned', 80], ['CSC165H1', 'Planned', 80]]</t>
+  </si>
+  <si>
+    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 0], ['CSC165H1', 'Planned', 80]]</t>
   </si>
 </sst>
 </file>
@@ -379,13 +389,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -403,25 +413,32 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3"/>
+    <row r="3" spans="1:3"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -26,34 +26,31 @@
     <t>Programs</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 80], ['CSC165H1', 'Planned', 80]]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>tim</t>
   </si>
   <si>
-    <t>[['CSC108H1', 'Planned', 0]]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[['CSC108H1', 'Planned', 80]]</t>
-  </si>
-  <si>
-    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 0]]</t>
-  </si>
-  <si>
-    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 80]]</t>
-  </si>
-  <si>
-    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 80], ['CSC165H1', 'Planned', 0]]</t>
-  </si>
-  <si>
-    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 80], ['CSC165H1', 'Planned', 80]]</t>
-  </si>
-  <si>
-    <t>[['CSC108H1', 'Planned', 0], ['CSC148H1', 'Planned', 80], ['CSC165H1', 'Planned', 80]]</t>
-  </si>
-  <si>
-    <t>[['CSC108H1', 'Planned', 80], ['CSC148H1', 'Planned', 0], ['CSC165H1', 'Planned', 80]]</t>
+    <t>[['CSC165H1', 'Planned', 0]]</t>
+  </si>
+  <si>
+    <t>[['CSC165H1', 'Planned', 60]]</t>
+  </si>
+  <si>
+    <t>[['CSC165H1', 'Planned', 60], ['CSC108H1', 'Planned', 0]]</t>
+  </si>
+  <si>
+    <t>[['CSC165H1', 'Planned', 60], ['CSC108H1', 'Planned', 0], ['ECO206Y1', 'Planned', 0]]</t>
+  </si>
+  <si>
+    <t>[['CSC165H1', 'Planned', 60], ['CSC108H1', 'Planned', 0], ['ECO206Y1', 'Planned', 80]]</t>
   </si>
 </sst>
 </file>
@@ -389,10 +386,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -413,13 +410,24 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3"/>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
